--- a/matAE/SOmulti.xlsx
+++ b/matAE/SOmulti.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jubn\S\Acade\SisOpe\EM2020\matAE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdist.ITAM\Documents\sistemasOperativos\matAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="103">
   <si>
     <t>SISTEMA OPERATIVO</t>
   </si>
@@ -328,11 +328,26 @@
   <si>
     <t>Proc2-&gt;</t>
   </si>
+  <si>
+    <t>Proc3-&gt;</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>Proc-&gt;1</t>
+  </si>
+  <si>
+    <t>Proc-&gt;3</t>
+  </si>
+  <si>
+    <t>Proc-&gt;2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1380,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -2066,8 +2081,12 @@
       </c>
       <c r="H49"/>
       <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
+      <c r="J49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
       <c r="L49"/>
       <c r="P49" s="5" t="s">
         <v>53</v>
@@ -2088,14 +2107,24 @@
       </c>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
+      <c r="J50" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
       <c r="L50"/>
+      <c r="N50" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="P50" s="46" t="s">
         <v>37</v>
       </c>
       <c r="Q50" s="1">
         <v>0.1</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2108,17 +2137,33 @@
       <c r="F51" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H51"/>
+      <c r="H51" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
+      <c r="J51" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="M51"/>
-      <c r="N51"/>
+      <c r="N51" s="47" t="s">
+        <v>59</v>
+      </c>
       <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
+      <c r="P51" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>1</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="S51"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.35">
@@ -2131,17 +2176,33 @@
       <c r="E52" s="1">
         <v>1</v>
       </c>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
+      <c r="H52" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
       <c r="L52"/>
       <c r="M52"/>
-      <c r="N52"/>
+      <c r="N52" s="47" t="s">
+        <v>60</v>
+      </c>
       <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
+      <c r="P52" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>1</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="S52"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.35">
@@ -2151,17 +2212,32 @@
       <c r="E53" s="1">
         <v>1</v>
       </c>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
+      <c r="H53" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
       <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
+      <c r="M53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="47" t="s">
+        <v>99</v>
+      </c>
       <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
-      <c r="R53"/>
+      <c r="P53" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="S53"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.35">
@@ -2171,17 +2247,32 @@
       <c r="E54" s="1">
         <v>1</v>
       </c>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
+      <c r="H54" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
       <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
+      <c r="M54" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N54" s="47" t="s">
+        <v>61</v>
+      </c>
       <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
+      <c r="P54" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>1</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="S54"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.35">
@@ -2191,17 +2282,31 @@
       <c r="E55" s="1">
         <v>1</v>
       </c>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
+      <c r="H55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J55" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M55" s="48" t="s">
+        <v>99</v>
+      </c>
       <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
+      <c r="P55" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="S55"/>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.35">
@@ -2215,16 +2320,26 @@
         <v>1</v>
       </c>
       <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
+      <c r="J56" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
       <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
+      <c r="M56" s="48" t="s">
+        <v>60</v>
+      </c>
       <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
+      <c r="P56" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>1</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="S56"/>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.35">
@@ -2239,18 +2354,32 @@
       </c>
       <c r="H57"/>
       <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
+      <c r="J57" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
       <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
+      <c r="M57" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
+      <c r="P57" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="S57"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C58" s="48" t="s">
         <v>60</v>
       </c>
@@ -2260,20 +2389,38 @@
       <c r="E58" s="1">
         <v>1</v>
       </c>
-      <c r="H58"/>
+      <c r="H58" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
+      <c r="J58" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M58" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="N58" s="49" t="s">
+        <v>59</v>
+      </c>
       <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
+      <c r="P58" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>1</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="S58"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B59" s="1" t="s">
         <v>93</v>
       </c>
@@ -2286,40 +2433,70 @@
       <c r="E59" s="1">
         <v>1</v>
       </c>
-      <c r="H59"/>
+      <c r="H59" s="49" t="s">
+        <v>59</v>
+      </c>
       <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
+      <c r="J59" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
       <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
+      <c r="M59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N59" s="49" t="s">
+        <v>99</v>
+      </c>
       <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
+      <c r="P59" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="S59"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D60" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
       </c>
-      <c r="H60"/>
+      <c r="H60" s="49" t="s">
+        <v>60</v>
+      </c>
       <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
+      <c r="J60" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
       <c r="L60"/>
       <c r="M60"/>
-      <c r="N60"/>
+      <c r="N60" s="49" t="s">
+        <v>60</v>
+      </c>
       <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
+      <c r="P60" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>1</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="S60"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C61" s="1" t="s">
         <v>91</v>
       </c>
@@ -2329,17 +2506,31 @@
       <c r="E61" s="1">
         <v>1</v>
       </c>
-      <c r="H61"/>
+      <c r="H61" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
+      <c r="J61" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
       <c r="L61"/>
       <c r="M61"/>
-      <c r="N61"/>
+      <c r="N61" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
+      <c r="P61" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>1</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="S61"/>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.35">
@@ -2352,20 +2543,34 @@
       <c r="E62" s="1">
         <v>1</v>
       </c>
-      <c r="H62"/>
+      <c r="H62" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
+      <c r="J62" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="M62"/>
       <c r="N62"/>
       <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
-      <c r="R62"/>
+      <c r="P62" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="S62"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C63" s="48" t="s">
         <v>68</v>
       </c>
@@ -2377,18 +2582,28 @@
       </c>
       <c r="H63"/>
       <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
+      <c r="J63" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
       <c r="L63"/>
       <c r="M63"/>
       <c r="N63"/>
       <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
+      <c r="P63" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>1</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="S63"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B64" s="1" t="s">
         <v>93</v>
       </c>
@@ -2403,15 +2618,26 @@
       </c>
       <c r="H64"/>
       <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
+      <c r="J64" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="N64"/>
       <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
-      <c r="R64"/>
+      <c r="P64" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>1</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="S64"/>
     </row>
     <row r="65" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2423,14 +2649,24 @@
       </c>
       <c r="H65"/>
       <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
+      <c r="J65" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
       <c r="L65"/>
       <c r="M65"/>
-      <c r="N65"/>
+      <c r="N65" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="O65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
+      <c r="P65" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>0.1</v>
+      </c>
       <c r="R65"/>
       <c r="S65"/>
     </row>
@@ -2443,15 +2679,27 @@
       </c>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
+      <c r="J66" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
       <c r="L66"/>
       <c r="M66"/>
-      <c r="N66"/>
+      <c r="N66" s="48" t="s">
+        <v>67</v>
+      </c>
       <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
+      <c r="P66" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>1</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="S66"/>
     </row>
     <row r="67" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2461,17 +2709,33 @@
       <c r="E67" s="1">
         <v>1</v>
       </c>
-      <c r="H67"/>
+      <c r="H67" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
+      <c r="J67" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="M67"/>
-      <c r="N67"/>
+      <c r="N67" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
-      <c r="R67"/>
+      <c r="P67" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>1</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="S67"/>
     </row>
     <row r="68" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2481,17 +2745,31 @@
       <c r="E68" s="1">
         <v>1</v>
       </c>
-      <c r="H68"/>
+      <c r="H68" s="48" t="s">
+        <v>67</v>
+      </c>
       <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
+      <c r="J68" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
       <c r="L68"/>
       <c r="M68"/>
-      <c r="N68"/>
+      <c r="N68" s="48" t="s">
+        <v>69</v>
+      </c>
       <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
-      <c r="R68"/>
+      <c r="P68" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>1</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="S68"/>
     </row>
     <row r="69" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2504,20 +2782,30 @@
       <c r="F69" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H69"/>
+      <c r="H69" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
+      <c r="J69" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
+      <c r="P69" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>0.1</v>
+      </c>
       <c r="R69"/>
       <c r="S69"/>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C70" s="27" t="s">
         <v>14</v>
       </c>
@@ -2527,40 +2815,68 @@
       <c r="E70" s="1">
         <v>1</v>
       </c>
-      <c r="H70"/>
+      <c r="H70" s="48" t="s">
+        <v>69</v>
+      </c>
       <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
+      <c r="J70" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
       <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
-      <c r="R70"/>
+      <c r="P70" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>1</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="S70"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D71" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
-      <c r="H71"/>
+      <c r="H71" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
+      <c r="J71" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="M71"/>
       <c r="N71"/>
       <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="P71" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>1</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S71" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D72" s="7" t="s">
         <v>79</v>
       </c>
@@ -2569,18 +2885,28 @@
       </c>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
+      <c r="J72" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72"/>
       <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
-      <c r="R72"/>
+      <c r="P72" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>1</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="S72"/>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D73" s="7" t="s">
         <v>80</v>
       </c>
@@ -2589,18 +2915,30 @@
       </c>
       <c r="H73"/>
       <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
+      <c r="J73" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
       <c r="L73"/>
-      <c r="M73"/>
+      <c r="M73" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="N73"/>
       <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
-      <c r="R73"/>
+      <c r="P73" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>1</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="S73"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C74" s="1" t="s">
         <v>91</v>
       </c>
@@ -2612,18 +2950,28 @@
       </c>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
+      <c r="J74" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1</v>
+      </c>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
       <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-      <c r="R74"/>
+      <c r="P74" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>1</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="S74"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C75" s="49" t="s">
         <v>59</v>
       </c>
@@ -2635,18 +2983,28 @@
       </c>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
+      <c r="J75" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1</v>
+      </c>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75"/>
       <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
-      <c r="R75"/>
+      <c r="P75" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>1</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="S75"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C76" s="49" t="s">
         <v>60</v>
       </c>
@@ -2658,18 +3016,30 @@
       </c>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
+      <c r="J76" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1</v>
+      </c>
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="P76" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>1</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S76" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B77" s="1" t="s">
         <v>93</v>
       </c>
@@ -2684,15 +3054,25 @@
       </c>
       <c r="H77"/>
       <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
+      <c r="J77" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1</v>
+      </c>
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
-      <c r="R77"/>
+      <c r="P77" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>1</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="S77"/>
     </row>
     <row r="78" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2704,16 +3084,30 @@
       </c>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
+      <c r="J78" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K78" s="1">
+        <v>1</v>
+      </c>
       <c r="L78"/>
-      <c r="M78"/>
+      <c r="M78" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="N78"/>
       <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
+      <c r="P78" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>1</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S78" s="26" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="79" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D79" s="31" t="s">
@@ -2724,14 +3118,17 @@
       </c>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
+      <c r="K79" s="1">
+        <f>SUM(K39:K78)</f>
+        <v>32.800000000000004</v>
+      </c>
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
-      <c r="Q79"/>
+      <c r="Q79" s="1">
+        <f>SUM(Q39:Q78)</f>
+        <v>32.800000000000004</v>
+      </c>
       <c r="R79"/>
       <c r="S79"/>
     </row>
